--- a/Bin/Server/DataConfig/Excel/EffectData.xlsx
+++ b/Bin/Server/DataConfig/Excel/EffectData.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -451,14 +456,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -473,158 +472,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,194 +496,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -954,251 +621,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,61 +671,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1315,11 +692,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,19 +1036,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="4" width="9.375" customWidth="1"/>
@@ -1674,7 +1057,7 @@
     <col min="12" max="26" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -2134,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -2226,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2318,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:30">
+    <row r="8" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2410,7 +1793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
@@ -2502,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
@@ -2594,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
@@ -2686,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>70</v>
       </c>
@@ -2778,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>71</v>
       </c>
@@ -2870,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>72</v>
       </c>
@@ -2962,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3054,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
@@ -3146,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>75</v>
       </c>
@@ -3238,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>76</v>
       </c>
@@ -3330,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -3422,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>78</v>
       </c>
@@ -3514,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
@@ -3606,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>80</v>
       </c>
@@ -3698,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>81</v>
       </c>
@@ -3790,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>82</v>
       </c>
@@ -3882,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>83</v>
       </c>
@@ -3974,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>84</v>
       </c>
@@ -4066,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -4158,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>86</v>
       </c>
@@ -4250,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>87</v>
       </c>
@@ -4342,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
@@ -4434,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>89</v>
       </c>
@@ -4526,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>90</v>
       </c>
@@ -4618,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>91</v>
       </c>
@@ -4710,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>92</v>
       </c>
@@ -4802,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>93</v>
       </c>
@@ -4894,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>94</v>
       </c>
@@ -4986,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>95</v>
       </c>
@@ -5078,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>96</v>
       </c>
@@ -5170,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>97</v>
       </c>
@@ -5262,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>98</v>
       </c>
@@ -5354,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>99</v>
       </c>
@@ -5446,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>100</v>
       </c>
@@ -5538,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>101</v>
       </c>
@@ -5630,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>102</v>
       </c>
@@ -5722,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>103</v>
       </c>
@@ -5814,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>104</v>
       </c>
@@ -5906,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>105</v>
       </c>
@@ -5998,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
@@ -6090,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>107</v>
       </c>
@@ -6182,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>108</v>
       </c>
@@ -6274,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>109</v>
       </c>
@@ -6366,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>110</v>
       </c>
@@ -6458,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>111</v>
       </c>
@@ -6550,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>112</v>
       </c>
@@ -6642,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>113</v>
       </c>
@@ -6734,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>114</v>
       </c>
@@ -6826,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
@@ -6918,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>116</v>
       </c>
@@ -7010,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>117</v>
       </c>
@@ -7102,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>118</v>
       </c>
@@ -7194,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>119</v>
       </c>
@@ -7286,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>120</v>
       </c>
@@ -7378,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>121</v>
       </c>
@@ -7470,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>122</v>
       </c>
@@ -7562,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>123</v>
       </c>
@@ -7654,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>124</v>
       </c>
@@ -7746,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>125</v>
       </c>
@@ -7838,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>126</v>
       </c>
@@ -7930,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>127</v>
       </c>
@@ -8022,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>128</v>
       </c>
@@ -8114,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
         <v>129</v>
       </c>
@@ -8206,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
         <v>130</v>
       </c>
@@ -8298,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
         <v>131</v>
       </c>
@@ -8390,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
         <v>132</v>
       </c>
@@ -8482,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
         <v>133</v>
       </c>
@@ -8574,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
         <v>134</v>
       </c>
@@ -8666,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
         <v>135</v>
       </c>
@@ -8758,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
         <v>136</v>
       </c>
@@ -8850,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
         <v>137</v>
       </c>
@@ -8942,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A80" s="12" t="s">
         <v>138</v>
       </c>
@@ -9034,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A81" s="12" t="s">
         <v>139</v>
       </c>
@@ -9126,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A82" s="12" t="s">
         <v>140</v>
       </c>
@@ -9218,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A83" s="12" t="s">
         <v>141</v>
       </c>
@@ -9310,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A84" s="12" t="s">
         <v>142</v>
       </c>
@@ -9403,13 +8786,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
